--- a/medicine/Sexualité et sexologie/Crash_(film,_1996)/Crash_(film,_1996).xlsx
+++ b/medicine/Sexualité et sexologie/Crash_(film,_1996)/Crash_(film,_1996).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crash est un film canado-britannique écrit et réalisé par David Cronenberg, sorti en 1996. Il s'agit d'une adaptation du roman du même nom de J. G. Ballard, publié en 1973.
 Il est présenté en compétition officielle au festival de Cannes 1996.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après un grave accident de la route, James Ballard nourrit une étrange fascination morbide pour les blessures et se lie physiquement avec la passagère de la voiture d'en face. Ils ne vont trouver mutuellement l'excitation sexuelle qu'à travers des scènes de collisions d'automobile.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original et français : Crash
@@ -564,13 +580,13 @@
 Format : Couleurs - 1,37:1 - 1,78:1 - Dolby - 35 mm
 Genre : drame, thriller érotique
 Durée : 100 minutes
-Dates de sortie[1] :
+Dates de sortie :
 France : 17 mai 1996 (festival de Cannes - compétition officielle)
 France : 17 juillet 1996, 8 juillet 2020 pour la version restaurée en 4K
 Canada : 4 octobre 1996
 Classification :
- France : interdit aux moins de 16 ans[2]
- Royaume-Uni : interdit aux moins de 18 ans[3]</t>
+ France : interdit aux moins de 16 ans
+ Royaume-Uni : interdit aux moins de 18 ans</t>
         </is>
       </c>
     </row>
@@ -598,7 +614,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>James Spader (VF : Éric Herson-Macarel) : James Ballard
 Deborah Kara Unger (VF : Françoise Cadol) : Catherine Ballard
@@ -637,10 +655,15 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Accueil critique
-Le film a reçu un accueil mitigé au positif avec un pourcentage de 63 % de critiques positives sur Rotten Tomatoes basé sur 59 critiques collectées[4]. Le site Metacritic lui attribue un score moyen de 50/100, sur la base de 23 critiques collectées[5].
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a reçu un accueil mitigé au positif avec un pourcentage de 63 % de critiques positives sur Rotten Tomatoes basé sur 59 critiques collectées. Le site Metacritic lui attribue un score moyen de 50/100, sur la base de 23 critiques collectées.
 Le film est dans la sélection officielle du Festival de Cannes de 1996, où il provoque une vive polémique en raison des scènes crues d'accidents et de sexe. Des critiques estiment que le film est clairement pornographique.
-Box-office</t>
+</t>
         </is>
       </c>
     </row>
@@ -670,15 +693,88 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Récompenses
-Festival de Cannes 1996 : prix spécial du jury
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Festival de Cannes 1996 : prix spécial du jury
 Prix Génie 1996 : Bobine d'or, meilleur réalisateur, meilleur scénario adapté, meilleure photographie, meilleur montage et meilleur montage sonore
-Top 10 de 1996 Cahiers du cinéma
-Nominations
-Prix Génie 1996 : meilleur film et meilleur son
-Grand Prix de l'Union de la critique de cinéma en 1997.
-Sélections
-Festival de Cannes 1996 : compétition officielle
+Top 10 de 1996 Cahiers du cinéma</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Crash_(film,_1996)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crash_(film,_1996)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distinctions principales</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Prix Génie 1996 : meilleur film et meilleur son
+Grand Prix de l'Union de la critique de cinéma en 1997.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Crash_(film,_1996)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crash_(film,_1996)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Distinctions principales</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sélections</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Festival de Cannes 1996 : compétition officielle
 Mostra de Venise 2019 : Venise Classique</t>
         </is>
       </c>
